--- a/data_bom_head.xlsx
+++ b/data_bom_head.xlsx
@@ -107,7 +107,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">001</t>
+    <t xml:space="preserve">002</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6500</v>
+        <v>6507</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -563,7 +563,7 @@
         <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I2" t="n">
         <v>31160</v>
